--- a/final_data_pipeline/output/311224_elec_options.xlsx
+++ b/final_data_pipeline/output/311224_elec_options.xlsx
@@ -1110,7 +1110,7 @@
         <v>173</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -1205,7 +1205,7 @@
         <v>173</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -1300,7 +1300,7 @@
         <v>173</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE4">
         <v>8000</v>
@@ -1395,7 +1395,7 @@
         <v>173</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE5">
         <v>8000</v>
@@ -1490,7 +1490,7 @@
         <v>173</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE6">
         <v>8000</v>
@@ -1585,7 +1585,7 @@
         <v>173</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE7">
         <v>8000</v>
@@ -1680,7 +1680,7 @@
         <v>173</v>
       </c>
       <c r="AD8">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE8">
         <v>8000</v>
@@ -1778,7 +1778,7 @@
         <v>173</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE9">
         <v>8000</v>
@@ -1873,7 +1873,7 @@
         <v>173</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1968,7 +1968,7 @@
         <v>173</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -2063,7 +2063,7 @@
         <v>173</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -2158,7 +2158,7 @@
         <v>173</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -2253,7 +2253,7 @@
         <v>173</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE14">
         <v>8000</v>
@@ -2348,7 +2348,7 @@
         <v>173</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE15">
         <v>8000</v>
@@ -2446,7 +2446,7 @@
         <v>173</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE16">
         <v>8000</v>
@@ -2541,7 +2541,7 @@
         <v>173</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE17">
         <v>8000</v>
@@ -2639,7 +2639,7 @@
         <v>173</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE18">
         <v>8000</v>
@@ -2734,7 +2734,7 @@
         <v>173</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE19">
         <v>8000</v>
@@ -2829,7 +2829,7 @@
         <v>173</v>
       </c>
       <c r="AD20">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE20">
         <v>8000</v>
@@ -2924,7 +2924,7 @@
         <v>173</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE21">
         <v>8000</v>
@@ -4453,7 +4453,7 @@
         <v>173</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE37">
         <v>8000</v>
@@ -4548,7 +4548,7 @@
         <v>173</v>
       </c>
       <c r="AD38">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE38">
         <v>8000</v>
@@ -4643,7 +4643,7 @@
         <v>173</v>
       </c>
       <c r="AD39">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE39">
         <v>8000</v>
@@ -4741,7 +4741,7 @@
         <v>173</v>
       </c>
       <c r="AD40">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE40">
         <v>8000</v>
@@ -4839,7 +4839,7 @@
         <v>173</v>
       </c>
       <c r="AD41">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE41">
         <v>8000</v>
@@ -4934,7 +4934,7 @@
         <v>173</v>
       </c>
       <c r="AD42">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE42">
         <v>8000</v>
@@ -5029,7 +5029,7 @@
         <v>173</v>
       </c>
       <c r="AD43">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE43">
         <v>8000</v>
@@ -5124,7 +5124,7 @@
         <v>173</v>
       </c>
       <c r="AD44">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE44">
         <v>8000</v>
@@ -5219,7 +5219,7 @@
         <v>173</v>
       </c>
       <c r="AD45">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE45">
         <v>8000</v>
@@ -5314,7 +5314,7 @@
         <v>173</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE46">
         <v>8000</v>
@@ -5887,7 +5887,7 @@
         <v>173</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE52">
         <v>8000</v>
@@ -5985,7 +5985,7 @@
         <v>173</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE53">
         <v>8000</v>
@@ -6080,7 +6080,7 @@
         <v>173</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE54">
         <v>8000</v>
@@ -6175,7 +6175,7 @@
         <v>173</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE55">
         <v>8000</v>
@@ -6270,7 +6270,7 @@
         <v>173</v>
       </c>
       <c r="AD56">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE56">
         <v>8000</v>
@@ -6365,7 +6365,7 @@
         <v>173</v>
       </c>
       <c r="AD57">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE57">
         <v>8000</v>
@@ -6460,7 +6460,7 @@
         <v>173</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE58">
         <v>8000</v>
@@ -6555,7 +6555,7 @@
         <v>173</v>
       </c>
       <c r="AD59">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE59">
         <v>8000</v>
@@ -6650,7 +6650,7 @@
         <v>173</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE60">
         <v>8000</v>
@@ -6745,7 +6745,7 @@
         <v>173</v>
       </c>
       <c r="AD61">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE61">
         <v>8000</v>
@@ -6840,7 +6840,7 @@
         <v>173</v>
       </c>
       <c r="AD62">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE62">
         <v>8000</v>
@@ -6935,7 +6935,7 @@
         <v>173</v>
       </c>
       <c r="AD63">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE63">
         <v>8000</v>
@@ -7033,7 +7033,7 @@
         <v>173</v>
       </c>
       <c r="AD64">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE64">
         <v>8000</v>
@@ -7131,7 +7131,7 @@
         <v>173</v>
       </c>
       <c r="AD65">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE65">
         <v>8000</v>
@@ -7226,7 +7226,7 @@
         <v>173</v>
       </c>
       <c r="AD66">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE66">
         <v>8000</v>
@@ -7321,7 +7321,7 @@
         <v>173</v>
       </c>
       <c r="AD67">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE67">
         <v>8000</v>
@@ -7416,7 +7416,7 @@
         <v>173</v>
       </c>
       <c r="AD68">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE68">
         <v>8000</v>
@@ -7511,7 +7511,7 @@
         <v>173</v>
       </c>
       <c r="AD69">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE69">
         <v>8000</v>
@@ -7606,7 +7606,7 @@
         <v>173</v>
       </c>
       <c r="AD70">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE70">
         <v>8000</v>
@@ -7701,7 +7701,7 @@
         <v>173</v>
       </c>
       <c r="AD71">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE71">
         <v>8000</v>
@@ -7796,7 +7796,7 @@
         <v>173</v>
       </c>
       <c r="AD72">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE72">
         <v>8000</v>
@@ -7891,7 +7891,7 @@
         <v>173</v>
       </c>
       <c r="AD73">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE73">
         <v>8000</v>
@@ -7989,7 +7989,7 @@
         <v>173</v>
       </c>
       <c r="AD74">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE74">
         <v>8000</v>
@@ -8087,7 +8087,7 @@
         <v>173</v>
       </c>
       <c r="AD75">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE75">
         <v>8000</v>
@@ -8182,7 +8182,7 @@
         <v>173</v>
       </c>
       <c r="AD76">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE76">
         <v>8000</v>
@@ -8755,7 +8755,7 @@
         <v>173</v>
       </c>
       <c r="AD82">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE82">
         <v>8000</v>
@@ -8850,7 +8850,7 @@
         <v>173</v>
       </c>
       <c r="AD83">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE83">
         <v>8000</v>
@@ -8948,7 +8948,7 @@
         <v>173</v>
       </c>
       <c r="AD84">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE84">
         <v>8000</v>
@@ -9043,7 +9043,7 @@
         <v>173</v>
       </c>
       <c r="AD85">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE85">
         <v>8000</v>
@@ -9138,7 +9138,7 @@
         <v>173</v>
       </c>
       <c r="AD86">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE86">
         <v>8000</v>
@@ -10189,7 +10189,7 @@
         <v>173</v>
       </c>
       <c r="AD97">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="AE97">
         <v>8000</v>
@@ -10287,7 +10287,7 @@
         <v>173</v>
       </c>
       <c r="AD98">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="AE98">
         <v>8000</v>
@@ -10382,7 +10382,7 @@
         <v>173</v>
       </c>
       <c r="AD99">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="AE99">
         <v>8000</v>
@@ -10477,7 +10477,7 @@
         <v>173</v>
       </c>
       <c r="AD100">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="AE100">
         <v>8000</v>
@@ -10572,7 +10572,7 @@
         <v>173</v>
       </c>
       <c r="AD101">
-        <v>10</v>
+        <v>16.97685185185183</v>
       </c>
       <c r="AE101">
         <v>8000</v>
@@ -10667,7 +10667,7 @@
         <v>173</v>
       </c>
       <c r="AD102">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE102">
         <v>8000</v>
@@ -10765,7 +10765,7 @@
         <v>173</v>
       </c>
       <c r="AD103">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE103">
         <v>8000</v>
@@ -10860,7 +10860,7 @@
         <v>173</v>
       </c>
       <c r="AD104">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE104">
         <v>8000</v>
@@ -10955,7 +10955,7 @@
         <v>173</v>
       </c>
       <c r="AD105">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE105">
         <v>8000</v>
@@ -11050,7 +11050,7 @@
         <v>173</v>
       </c>
       <c r="AD106">
-        <v>10</v>
+        <v>-3.847222222222223</v>
       </c>
       <c r="AE106">
         <v>8000</v>
@@ -12101,7 +12101,7 @@
         <v>173</v>
       </c>
       <c r="AD117">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE117">
         <v>8000</v>
@@ -12199,7 +12199,7 @@
         <v>173</v>
       </c>
       <c r="AD118">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE118">
         <v>8000</v>
@@ -12294,7 +12294,7 @@
         <v>173</v>
       </c>
       <c r="AD119">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE119">
         <v>8000</v>
@@ -12389,7 +12389,7 @@
         <v>173</v>
       </c>
       <c r="AD120">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE120">
         <v>8000</v>
@@ -12484,7 +12484,7 @@
         <v>173</v>
       </c>
       <c r="AD121">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE121">
         <v>8000</v>
@@ -12579,7 +12579,7 @@
         <v>173</v>
       </c>
       <c r="AD122">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE122">
         <v>8000</v>
@@ -12674,7 +12674,7 @@
         <v>173</v>
       </c>
       <c r="AD123">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE123">
         <v>8000</v>
@@ -12769,7 +12769,7 @@
         <v>173</v>
       </c>
       <c r="AD124">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE124">
         <v>8000</v>
@@ -12864,7 +12864,7 @@
         <v>173</v>
       </c>
       <c r="AD125">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE125">
         <v>8000</v>
@@ -12962,7 +12962,7 @@
         <v>173</v>
       </c>
       <c r="AD126">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE126">
         <v>8000</v>
@@ -13535,7 +13535,7 @@
         <v>173</v>
       </c>
       <c r="AD132">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AE132">
         <v>8000</v>
@@ -13633,7 +13633,7 @@
         <v>173</v>
       </c>
       <c r="AD133">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AE133">
         <v>8000</v>
@@ -13728,7 +13728,7 @@
         <v>173</v>
       </c>
       <c r="AD134">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AE134">
         <v>8000</v>
@@ -13823,7 +13823,7 @@
         <v>173</v>
       </c>
       <c r="AD135">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AE135">
         <v>8000</v>
@@ -13918,7 +13918,7 @@
         <v>173</v>
       </c>
       <c r="AD136">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AE136">
         <v>8000</v>
@@ -14013,7 +14013,7 @@
         <v>173</v>
       </c>
       <c r="AD137">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE137">
         <v>8000</v>
@@ -14108,7 +14108,7 @@
         <v>173</v>
       </c>
       <c r="AD138">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE138">
         <v>8000</v>
@@ -14203,7 +14203,7 @@
         <v>173</v>
       </c>
       <c r="AD139">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE139">
         <v>8000</v>
@@ -14301,7 +14301,7 @@
         <v>173</v>
       </c>
       <c r="AD140">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE140">
         <v>8000</v>
@@ -14396,7 +14396,7 @@
         <v>173</v>
       </c>
       <c r="AD141">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE141">
         <v>8000</v>
@@ -14491,7 +14491,7 @@
         <v>173</v>
       </c>
       <c r="AD142">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE142">
         <v>8000</v>
@@ -14589,7 +14589,7 @@
         <v>173</v>
       </c>
       <c r="AD143">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE143">
         <v>8000</v>
@@ -14684,7 +14684,7 @@
         <v>173</v>
       </c>
       <c r="AD144">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE144">
         <v>8000</v>
@@ -14779,7 +14779,7 @@
         <v>173</v>
       </c>
       <c r="AD145">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE145">
         <v>8000</v>
@@ -14874,7 +14874,7 @@
         <v>173</v>
       </c>
       <c r="AD146">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE146">
         <v>8000</v>
@@ -14969,7 +14969,7 @@
         <v>173</v>
       </c>
       <c r="AD147">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE147">
         <v>8000</v>
@@ -15067,7 +15067,7 @@
         <v>173</v>
       </c>
       <c r="AD148">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE148">
         <v>8000</v>
@@ -15162,7 +15162,7 @@
         <v>173</v>
       </c>
       <c r="AD149">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE149">
         <v>8000</v>
@@ -15257,7 +15257,7 @@
         <v>173</v>
       </c>
       <c r="AD150">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE150">
         <v>8000</v>
@@ -15352,7 +15352,7 @@
         <v>173</v>
       </c>
       <c r="AD151">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE151">
         <v>8000</v>
@@ -18315,7 +18315,7 @@
         <v>173</v>
       </c>
       <c r="AD182">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE182">
         <v>8000</v>
@@ -18410,7 +18410,7 @@
         <v>173</v>
       </c>
       <c r="AD183">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE183">
         <v>8000</v>
@@ -18505,7 +18505,7 @@
         <v>173</v>
       </c>
       <c r="AD184">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE184">
         <v>8000</v>
@@ -18600,7 +18600,7 @@
         <v>173</v>
       </c>
       <c r="AD185">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE185">
         <v>8000</v>
@@ -18695,7 +18695,7 @@
         <v>173</v>
       </c>
       <c r="AD186">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE186">
         <v>8000</v>
@@ -18793,7 +18793,7 @@
         <v>173</v>
       </c>
       <c r="AD187">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE187">
         <v>8000</v>
@@ -18891,7 +18891,7 @@
         <v>173</v>
       </c>
       <c r="AD188">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE188">
         <v>8000</v>
@@ -18986,7 +18986,7 @@
         <v>173</v>
       </c>
       <c r="AD189">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE189">
         <v>8000</v>
@@ -19081,7 +19081,7 @@
         <v>173</v>
       </c>
       <c r="AD190">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE190">
         <v>8000</v>
@@ -19176,7 +19176,7 @@
         <v>173</v>
       </c>
       <c r="AD191">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE191">
         <v>8000</v>
@@ -19271,7 +19271,7 @@
         <v>173</v>
       </c>
       <c r="AD192">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE192">
         <v>8000</v>
@@ -19366,7 +19366,7 @@
         <v>173</v>
       </c>
       <c r="AD193">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE193">
         <v>8000</v>
@@ -19461,7 +19461,7 @@
         <v>173</v>
       </c>
       <c r="AD194">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE194">
         <v>8000</v>
@@ -19559,7 +19559,7 @@
         <v>173</v>
       </c>
       <c r="AD195">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE195">
         <v>8000</v>
@@ -19657,7 +19657,7 @@
         <v>173</v>
       </c>
       <c r="AD196">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE196">
         <v>8000</v>
@@ -19752,7 +19752,7 @@
         <v>173</v>
       </c>
       <c r="AD197">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE197">
         <v>8000</v>
@@ -19847,7 +19847,7 @@
         <v>173</v>
       </c>
       <c r="AD198">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE198">
         <v>8000</v>
@@ -19942,7 +19942,7 @@
         <v>173</v>
       </c>
       <c r="AD199">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE199">
         <v>8000</v>
@@ -20037,7 +20037,7 @@
         <v>173</v>
       </c>
       <c r="AD200">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE200">
         <v>8000</v>
@@ -20132,7 +20132,7 @@
         <v>173</v>
       </c>
       <c r="AD201">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AE201">
         <v>8000</v>
@@ -20708,7 +20708,7 @@
         <v>173</v>
       </c>
       <c r="AD207">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE207">
         <v>8000</v>
@@ -20803,7 +20803,7 @@
         <v>173</v>
       </c>
       <c r="AD208">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE208">
         <v>8000</v>
@@ -20901,7 +20901,7 @@
         <v>173</v>
       </c>
       <c r="AD209">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE209">
         <v>8000</v>
@@ -20996,7 +20996,7 @@
         <v>173</v>
       </c>
       <c r="AD210">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE210">
         <v>8000</v>
@@ -21097,7 +21097,7 @@
         <v>173</v>
       </c>
       <c r="AD211">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE211">
         <v>8000</v>
@@ -21192,7 +21192,7 @@
         <v>173</v>
       </c>
       <c r="AD212">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE212">
         <v>8000</v>
@@ -21287,7 +21287,7 @@
         <v>173</v>
       </c>
       <c r="AD213">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE213">
         <v>8000</v>
@@ -21382,7 +21382,7 @@
         <v>173</v>
       </c>
       <c r="AD214">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE214">
         <v>8000</v>
@@ -21477,7 +21477,7 @@
         <v>173</v>
       </c>
       <c r="AD215">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE215">
         <v>8000</v>
@@ -21572,7 +21572,7 @@
         <v>173</v>
       </c>
       <c r="AD216">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE216">
         <v>8000</v>
@@ -21667,7 +21667,7 @@
         <v>173</v>
       </c>
       <c r="AD217">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE217">
         <v>8000</v>
@@ -21762,7 +21762,7 @@
         <v>173</v>
       </c>
       <c r="AD218">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE218">
         <v>8000</v>
@@ -21857,7 +21857,7 @@
         <v>173</v>
       </c>
       <c r="AD219">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE219">
         <v>8000</v>
@@ -21952,7 +21952,7 @@
         <v>173</v>
       </c>
       <c r="AD220">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE220">
         <v>8000</v>
@@ -22050,7 +22050,7 @@
         <v>173</v>
       </c>
       <c r="AD221">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE221">
         <v>8000</v>
@@ -22145,7 +22145,7 @@
         <v>173</v>
       </c>
       <c r="AD222">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE222">
         <v>8000</v>
@@ -22240,7 +22240,7 @@
         <v>173</v>
       </c>
       <c r="AD223">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE223">
         <v>8000</v>
@@ -22335,7 +22335,7 @@
         <v>173</v>
       </c>
       <c r="AD224">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE224">
         <v>8000</v>
@@ -22433,7 +22433,7 @@
         <v>173</v>
       </c>
       <c r="AD225">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE225">
         <v>8000</v>
@@ -22528,7 +22528,7 @@
         <v>173</v>
       </c>
       <c r="AD226">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE226">
         <v>8000</v>
@@ -22623,7 +22623,7 @@
         <v>173</v>
       </c>
       <c r="AD227">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="AE227">
         <v>8000</v>
@@ -22724,7 +22724,7 @@
         <v>173</v>
       </c>
       <c r="AD228">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE228">
         <v>8000</v>
@@ -22822,7 +22822,7 @@
         <v>173</v>
       </c>
       <c r="AD229">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE229">
         <v>8000</v>
@@ -22920,7 +22920,7 @@
         <v>173</v>
       </c>
       <c r="AD230">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE230">
         <v>8000</v>
@@ -23015,7 +23015,7 @@
         <v>173</v>
       </c>
       <c r="AD231">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE231">
         <v>8000</v>
@@ -23110,7 +23110,7 @@
         <v>173</v>
       </c>
       <c r="AD232">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE232">
         <v>8000</v>
@@ -23205,7 +23205,7 @@
         <v>173</v>
       </c>
       <c r="AD233">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE233">
         <v>8000</v>
@@ -23300,7 +23300,7 @@
         <v>173</v>
       </c>
       <c r="AD234">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE234">
         <v>8000</v>
@@ -23395,7 +23395,7 @@
         <v>173</v>
       </c>
       <c r="AD235">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE235">
         <v>8000</v>
@@ -23490,7 +23490,7 @@
         <v>173</v>
       </c>
       <c r="AD236">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE236">
         <v>8000</v>
@@ -23585,7 +23585,7 @@
         <v>173</v>
       </c>
       <c r="AD237">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE237">
         <v>8000</v>
@@ -23680,7 +23680,7 @@
         <v>173</v>
       </c>
       <c r="AD238">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE238">
         <v>8000</v>
@@ -23775,7 +23775,7 @@
         <v>173</v>
       </c>
       <c r="AD239">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE239">
         <v>8000</v>
@@ -23870,7 +23870,7 @@
         <v>173</v>
       </c>
       <c r="AD240">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE240">
         <v>8000</v>
@@ -23965,7 +23965,7 @@
         <v>173</v>
       </c>
       <c r="AD241">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE241">
         <v>8000</v>
@@ -24060,7 +24060,7 @@
         <v>173</v>
       </c>
       <c r="AD242">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE242">
         <v>8000</v>
@@ -24155,7 +24155,7 @@
         <v>173</v>
       </c>
       <c r="AD243">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE243">
         <v>8000</v>
@@ -24250,7 +24250,7 @@
         <v>173</v>
       </c>
       <c r="AD244">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE244">
         <v>8000</v>
@@ -24345,7 +24345,7 @@
         <v>173</v>
       </c>
       <c r="AD245">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE245">
         <v>8000</v>
@@ -24440,7 +24440,7 @@
         <v>173</v>
       </c>
       <c r="AD246">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE246">
         <v>8000</v>
@@ -24535,7 +24535,7 @@
         <v>173</v>
       </c>
       <c r="AD247">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE247">
         <v>8000</v>
@@ -24630,7 +24630,7 @@
         <v>173</v>
       </c>
       <c r="AD248">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE248">
         <v>8000</v>
@@ -24725,7 +24725,7 @@
         <v>173</v>
       </c>
       <c r="AD249">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE249">
         <v>8000</v>
@@ -24820,7 +24820,7 @@
         <v>173</v>
       </c>
       <c r="AD250">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE250">
         <v>8000</v>
@@ -24915,7 +24915,7 @@
         <v>173</v>
       </c>
       <c r="AD251">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE251">
         <v>8000</v>
@@ -25010,7 +25010,7 @@
         <v>173</v>
       </c>
       <c r="AD252">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE252">
         <v>8000</v>
@@ -25108,7 +25108,7 @@
         <v>173</v>
       </c>
       <c r="AD253">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE253">
         <v>8000</v>
@@ -25206,7 +25206,7 @@
         <v>173</v>
       </c>
       <c r="AD254">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE254">
         <v>8000</v>
@@ -25301,7 +25301,7 @@
         <v>173</v>
       </c>
       <c r="AD255">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE255">
         <v>8000</v>
@@ -25399,7 +25399,7 @@
         <v>173</v>
       </c>
       <c r="AD256">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE256">
         <v>8000</v>
@@ -25494,7 +25494,7 @@
         <v>173</v>
       </c>
       <c r="AD257">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE257">
         <v>8000</v>
@@ -25592,7 +25592,7 @@
         <v>173</v>
       </c>
       <c r="AD258">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AE258">
         <v>8000</v>
@@ -26643,7 +26643,7 @@
         <v>173</v>
       </c>
       <c r="AD269">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE269">
         <v>8000</v>
@@ -26738,7 +26738,7 @@
         <v>173</v>
       </c>
       <c r="AD270">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE270">
         <v>8000</v>
@@ -26833,7 +26833,7 @@
         <v>173</v>
       </c>
       <c r="AD271">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE271">
         <v>8000</v>
@@ -26928,7 +26928,7 @@
         <v>173</v>
       </c>
       <c r="AD272">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE272">
         <v>8000</v>
@@ -27026,7 +27026,7 @@
         <v>173</v>
       </c>
       <c r="AD273">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE273">
         <v>8000</v>
@@ -27124,7 +27124,7 @@
         <v>173</v>
       </c>
       <c r="AD274">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE274">
         <v>8000</v>
@@ -27219,7 +27219,7 @@
         <v>173</v>
       </c>
       <c r="AD275">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE275">
         <v>8000</v>
@@ -27314,7 +27314,7 @@
         <v>173</v>
       </c>
       <c r="AD276">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE276">
         <v>8000</v>
@@ -27409,7 +27409,7 @@
         <v>173</v>
       </c>
       <c r="AD277">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE277">
         <v>8000</v>
@@ -27504,7 +27504,7 @@
         <v>173</v>
       </c>
       <c r="AD278">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE278">
         <v>8000</v>
@@ -27599,7 +27599,7 @@
         <v>173</v>
       </c>
       <c r="AD279">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE279">
         <v>8000</v>
@@ -27694,7 +27694,7 @@
         <v>173</v>
       </c>
       <c r="AD280">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE280">
         <v>8000</v>
@@ -27789,7 +27789,7 @@
         <v>173</v>
       </c>
       <c r="AD281">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE281">
         <v>8000</v>
@@ -27884,7 +27884,7 @@
         <v>173</v>
       </c>
       <c r="AD282">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE282">
         <v>8000</v>
@@ -27982,7 +27982,7 @@
         <v>173</v>
       </c>
       <c r="AD283">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE283">
         <v>8000</v>
@@ -28077,7 +28077,7 @@
         <v>173</v>
       </c>
       <c r="AD284">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE284">
         <v>8000</v>
@@ -28175,7 +28175,7 @@
         <v>173</v>
       </c>
       <c r="AD285">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE285">
         <v>8000</v>
@@ -28270,7 +28270,7 @@
         <v>173</v>
       </c>
       <c r="AD286">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE286">
         <v>8000</v>
@@ -28365,7 +28365,7 @@
         <v>173</v>
       </c>
       <c r="AD287">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE287">
         <v>8000</v>
@@ -28460,7 +28460,7 @@
         <v>173</v>
       </c>
       <c r="AD288">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AE288">
         <v>8000</v>
@@ -28555,7 +28555,7 @@
         <v>173</v>
       </c>
       <c r="AD289">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE289">
         <v>8000</v>
@@ -28650,7 +28650,7 @@
         <v>173</v>
       </c>
       <c r="AD290">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE290">
         <v>8000</v>
@@ -28745,7 +28745,7 @@
         <v>173</v>
       </c>
       <c r="AD291">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE291">
         <v>8000</v>
@@ -28840,7 +28840,7 @@
         <v>173</v>
       </c>
       <c r="AD292">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE292">
         <v>8000</v>
@@ -28935,7 +28935,7 @@
         <v>173</v>
       </c>
       <c r="AD293">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE293">
         <v>8000</v>
@@ -29030,7 +29030,7 @@
         <v>173</v>
       </c>
       <c r="AD294">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE294">
         <v>8000</v>
@@ -29128,7 +29128,7 @@
         <v>173</v>
       </c>
       <c r="AD295">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE295">
         <v>8000</v>
@@ -29226,7 +29226,7 @@
         <v>173</v>
       </c>
       <c r="AD296">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE296">
         <v>8000</v>
@@ -29324,7 +29324,7 @@
         <v>173</v>
       </c>
       <c r="AD297">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE297">
         <v>8000</v>
@@ -29422,7 +29422,7 @@
         <v>173</v>
       </c>
       <c r="AD298">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE298">
         <v>8000</v>
@@ -29517,7 +29517,7 @@
         <v>173</v>
       </c>
       <c r="AD299">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE299">
         <v>8000</v>
@@ -29618,7 +29618,7 @@
         <v>173</v>
       </c>
       <c r="AD300">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE300">
         <v>8000</v>
@@ -29713,7 +29713,7 @@
         <v>173</v>
       </c>
       <c r="AD301">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE301">
         <v>8000</v>
@@ -29808,7 +29808,7 @@
         <v>173</v>
       </c>
       <c r="AD302">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE302">
         <v>8000</v>
@@ -29903,7 +29903,7 @@
         <v>173</v>
       </c>
       <c r="AD303">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE303">
         <v>8000</v>
@@ -30001,7 +30001,7 @@
         <v>173</v>
       </c>
       <c r="AD304">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE304">
         <v>8000</v>
@@ -30096,7 +30096,7 @@
         <v>173</v>
       </c>
       <c r="AD305">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE305">
         <v>8000</v>
@@ -30191,7 +30191,7 @@
         <v>173</v>
       </c>
       <c r="AD306">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE306">
         <v>8000</v>
@@ -30286,7 +30286,7 @@
         <v>173</v>
       </c>
       <c r="AD307">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE307">
         <v>8000</v>
@@ -30381,7 +30381,7 @@
         <v>173</v>
       </c>
       <c r="AD308">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE308">
         <v>8000</v>
@@ -30476,7 +30476,7 @@
         <v>173</v>
       </c>
       <c r="AD309">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE309">
         <v>8000</v>
@@ -30571,7 +30571,7 @@
         <v>173</v>
       </c>
       <c r="AD310">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE310">
         <v>8000</v>
@@ -30666,7 +30666,7 @@
         <v>173</v>
       </c>
       <c r="AD311">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE311">
         <v>8000</v>
@@ -30761,7 +30761,7 @@
         <v>173</v>
       </c>
       <c r="AD312">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE312">
         <v>8000</v>
@@ -30856,7 +30856,7 @@
         <v>173</v>
       </c>
       <c r="AD313">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE313">
         <v>8000</v>
@@ -30951,7 +30951,7 @@
         <v>173</v>
       </c>
       <c r="AD314">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AE314">
         <v>8000</v>
@@ -31524,7 +31524,7 @@
         <v>173</v>
       </c>
       <c r="AD320">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE320">
         <v>8000</v>
@@ -31619,7 +31619,7 @@
         <v>173</v>
       </c>
       <c r="AD321">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE321">
         <v>8000</v>
@@ -31714,7 +31714,7 @@
         <v>173</v>
       </c>
       <c r="AD322">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE322">
         <v>8000</v>
@@ -31809,7 +31809,7 @@
         <v>173</v>
       </c>
       <c r="AD323">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE323">
         <v>8000</v>
@@ -31907,7 +31907,7 @@
         <v>173</v>
       </c>
       <c r="AD324">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AE324">
         <v>8000</v>
@@ -32958,7 +32958,7 @@
         <v>173</v>
       </c>
       <c r="AD335">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE335">
         <v>8000</v>
@@ -33053,7 +33053,7 @@
         <v>173</v>
       </c>
       <c r="AD336">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE336">
         <v>8000</v>
@@ -33148,7 +33148,7 @@
         <v>173</v>
       </c>
       <c r="AD337">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE337">
         <v>8000</v>
@@ -33243,7 +33243,7 @@
         <v>173</v>
       </c>
       <c r="AD338">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE338">
         <v>8000</v>
@@ -33338,7 +33338,7 @@
         <v>173</v>
       </c>
       <c r="AD339">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE339">
         <v>8000</v>
@@ -33433,7 +33433,7 @@
         <v>173</v>
       </c>
       <c r="AD340">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE340">
         <v>8000</v>
@@ -33528,7 +33528,7 @@
         <v>173</v>
       </c>
       <c r="AD341">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE341">
         <v>8000</v>
@@ -33623,7 +33623,7 @@
         <v>173</v>
       </c>
       <c r="AD342">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE342">
         <v>8000</v>
@@ -33718,7 +33718,7 @@
         <v>173</v>
       </c>
       <c r="AD343">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE343">
         <v>8000</v>
@@ -33813,7 +33813,7 @@
         <v>173</v>
       </c>
       <c r="AD344">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE344">
         <v>8000</v>
@@ -33911,7 +33911,7 @@
         <v>173</v>
       </c>
       <c r="AD345">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE345">
         <v>8000</v>
@@ -34006,7 +34006,7 @@
         <v>173</v>
       </c>
       <c r="AD346">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE346">
         <v>8000</v>
@@ -34101,7 +34101,7 @@
         <v>173</v>
       </c>
       <c r="AD347">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE347">
         <v>8000</v>
@@ -34196,7 +34196,7 @@
         <v>173</v>
       </c>
       <c r="AD348">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE348">
         <v>8000</v>
@@ -34294,7 +34294,7 @@
         <v>173</v>
       </c>
       <c r="AD349">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE349">
         <v>8000</v>
@@ -34392,7 +34392,7 @@
         <v>173</v>
       </c>
       <c r="AD350">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE350">
         <v>8000</v>
@@ -34490,7 +34490,7 @@
         <v>173</v>
       </c>
       <c r="AD351">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE351">
         <v>8000</v>
@@ -34585,7 +34585,7 @@
         <v>173</v>
       </c>
       <c r="AD352">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE352">
         <v>8000</v>
@@ -34683,7 +34683,7 @@
         <v>173</v>
       </c>
       <c r="AD353">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE353">
         <v>8000</v>
@@ -34778,7 +34778,7 @@
         <v>173</v>
       </c>
       <c r="AD354">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE354">
         <v>8000</v>
@@ -34873,7 +34873,7 @@
         <v>173</v>
       </c>
       <c r="AD355">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE355">
         <v>8000</v>
@@ -34968,7 +34968,7 @@
         <v>173</v>
       </c>
       <c r="AD356">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE356">
         <v>8000</v>
@@ -35063,7 +35063,7 @@
         <v>173</v>
       </c>
       <c r="AD357">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE357">
         <v>8000</v>
@@ -35158,7 +35158,7 @@
         <v>173</v>
       </c>
       <c r="AD358">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE358">
         <v>8000</v>
@@ -35253,7 +35253,7 @@
         <v>173</v>
       </c>
       <c r="AD359">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE359">
         <v>8000</v>
@@ -36782,7 +36782,7 @@
         <v>173</v>
       </c>
       <c r="AD375">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE375">
         <v>8000</v>
@@ -36880,7 +36880,7 @@
         <v>173</v>
       </c>
       <c r="AD376">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE376">
         <v>8000</v>
@@ -36975,7 +36975,7 @@
         <v>173</v>
       </c>
       <c r="AD377">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE377">
         <v>8000</v>
@@ -37070,7 +37070,7 @@
         <v>173</v>
       </c>
       <c r="AD378">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE378">
         <v>8000</v>
@@ -37165,7 +37165,7 @@
         <v>173</v>
       </c>
       <c r="AD379">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE379">
         <v>8000</v>
@@ -37260,7 +37260,7 @@
         <v>173</v>
       </c>
       <c r="AD380">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE380">
         <v>8000</v>
@@ -37358,7 +37358,7 @@
         <v>173</v>
       </c>
       <c r="AD381">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE381">
         <v>8000</v>
@@ -37453,7 +37453,7 @@
         <v>173</v>
       </c>
       <c r="AD382">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE382">
         <v>8000</v>
@@ -37548,7 +37548,7 @@
         <v>173</v>
       </c>
       <c r="AD383">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE383">
         <v>8000</v>
@@ -37643,7 +37643,7 @@
         <v>173</v>
       </c>
       <c r="AD384">
-        <v>10</v>
+        <v>13.0158303464755</v>
       </c>
       <c r="AE384">
         <v>8000</v>
@@ -37738,7 +37738,7 @@
         <v>173</v>
       </c>
       <c r="AD385">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE385">
         <v>8000</v>
@@ -37833,7 +37833,7 @@
         <v>173</v>
       </c>
       <c r="AD386">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE386">
         <v>8000</v>
@@ -37928,7 +37928,7 @@
         <v>173</v>
       </c>
       <c r="AD387">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE387">
         <v>8000</v>
@@ -38023,7 +38023,7 @@
         <v>173</v>
       </c>
       <c r="AD388">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE388">
         <v>8000</v>
@@ -38118,7 +38118,7 @@
         <v>173</v>
       </c>
       <c r="AD389">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE389">
         <v>8000</v>
@@ -38213,7 +38213,7 @@
         <v>173</v>
       </c>
       <c r="AD390">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE390">
         <v>8000</v>
@@ -38311,7 +38311,7 @@
         <v>173</v>
       </c>
       <c r="AD391">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE391">
         <v>8000</v>
@@ -38409,7 +38409,7 @@
         <v>173</v>
       </c>
       <c r="AD392">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE392">
         <v>8000</v>
@@ -38504,7 +38504,7 @@
         <v>173</v>
       </c>
       <c r="AD393">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE393">
         <v>8000</v>
@@ -38599,7 +38599,7 @@
         <v>173</v>
       </c>
       <c r="AD394">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="AE394">
         <v>8000</v>
@@ -42040,7 +42040,7 @@
         <v>173</v>
       </c>
       <c r="AD430">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE430">
         <v>8000</v>
@@ -42135,7 +42135,7 @@
         <v>173</v>
       </c>
       <c r="AD431">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE431">
         <v>8000</v>
@@ -42230,7 +42230,7 @@
         <v>173</v>
       </c>
       <c r="AD432">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE432">
         <v>8000</v>
@@ -42325,7 +42325,7 @@
         <v>173</v>
       </c>
       <c r="AD433">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE433">
         <v>8000</v>
@@ -42420,7 +42420,7 @@
         <v>173</v>
       </c>
       <c r="AD434">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE434">
         <v>8000</v>
@@ -42515,7 +42515,7 @@
         <v>173</v>
       </c>
       <c r="AD435">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE435">
         <v>8000</v>
@@ -42613,7 +42613,7 @@
         <v>173</v>
       </c>
       <c r="AD436">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE436">
         <v>8000</v>
@@ -42711,7 +42711,7 @@
         <v>173</v>
       </c>
       <c r="AD437">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE437">
         <v>8000</v>
@@ -42806,7 +42806,7 @@
         <v>173</v>
       </c>
       <c r="AD438">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE438">
         <v>8000</v>
@@ -42901,7 +42901,7 @@
         <v>173</v>
       </c>
       <c r="AD439">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AE439">
         <v>8000</v>
